--- a/Win32/Binaries/Table/material.xlsx
+++ b/Win32/Binaries/Table/material.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="66">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,13 +248,21 @@
   </si>
   <si>
     <t>#cailiao_longwen.png</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取途径id，连接到getpath.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +284,30 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,16 +315,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -604,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D17"/>
+      <selection activeCell="H4" sqref="H4:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,7 +752,7 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1">
-        <v>1</v>
+        <v>110001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -737,14 +779,13 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <f>INT(A4*E4/100)*100</f>
         <v>1000</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>111001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -771,26 +812,25 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H17" si="0">INT(A5*E5/100)*100</f>
         <v>1000</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J5" s="1">
-        <v>1</v>
+        <v>111002</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f t="shared" ref="A6:A17" si="1">A4+1000</f>
+        <f t="shared" ref="A6:A19" si="0">A4+1000</f>
         <v>2001</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ref="C6" si="2">LEFT(A6,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C6" si="1">LEFT(A6,2)&amp;"级进阶武器的材料"</f>
         <v>20级进阶武器的材料</v>
       </c>
       <c r="D6" t="s">
@@ -806,26 +846,25 @@
         <v>7</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="1">
-        <v>1</v>
+        <v>112001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2002</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ref="C7" si="3">LEFT(A7,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C7" si="2">LEFT(A7,2)&amp;"级进阶护甲的材料"</f>
         <v>20级进阶护甲的材料</v>
       </c>
       <c r="D7" t="s">
@@ -841,26 +880,25 @@
         <v>8</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J7" s="1">
-        <v>1</v>
+        <v>112002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3001</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ref="C8" si="4">LEFT(A8,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C8" si="3">LEFT(A8,2)&amp;"级进阶武器的材料"</f>
         <v>30级进阶武器的材料</v>
       </c>
       <c r="D8" t="s">
@@ -876,26 +914,25 @@
         <v>10</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J8" s="1">
-        <v>1</v>
+        <v>113001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3002</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ref="C9" si="5">LEFT(A9,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C9" si="4">LEFT(A9,2)&amp;"级进阶护甲的材料"</f>
         <v>30级进阶护甲的材料</v>
       </c>
       <c r="D9" t="s">
@@ -911,26 +948,25 @@
         <v>11</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="J9" s="1">
-        <v>1</v>
+        <v>113002</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4001</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10" si="6">LEFT(A10,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C10" si="5">LEFT(A10,2)&amp;"级进阶武器的材料"</f>
         <v>40级进阶武器的材料</v>
       </c>
       <c r="D10" t="s">
@@ -946,26 +982,25 @@
         <v>13</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J10" s="1">
-        <v>1</v>
+        <v>114001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4002</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11" si="7">LEFT(A11,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C11" si="6">LEFT(A11,2)&amp;"级进阶护甲的材料"</f>
         <v>40级进阶护甲的材料</v>
       </c>
       <c r="D11" t="s">
@@ -981,26 +1016,25 @@
         <v>14</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J11" s="1">
-        <v>1</v>
+        <v>114002</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5001</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ref="C12" si="8">LEFT(A12,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C12" si="7">LEFT(A12,2)&amp;"级进阶武器的材料"</f>
         <v>50级进阶武器的材料</v>
       </c>
       <c r="D12" t="s">
@@ -1016,26 +1050,25 @@
         <v>16</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J12" s="1">
-        <v>1</v>
+        <v>115001</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5002</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ref="C13" si="9">LEFT(A13,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C13" si="8">LEFT(A13,2)&amp;"级进阶护甲的材料"</f>
         <v>50级进阶护甲的材料</v>
       </c>
       <c r="D13" t="s">
@@ -1051,26 +1084,25 @@
         <v>17</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>1000</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="1">
-        <v>1</v>
+        <v>115002</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6001</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ref="C14" si="10">LEFT(A14,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C14" si="9">LEFT(A14,2)&amp;"级进阶武器的材料"</f>
         <v>60级进阶武器的材料</v>
       </c>
       <c r="D14" t="s">
@@ -1086,26 +1118,25 @@
         <v>19</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>116001</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6002</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ref="C15" si="11">LEFT(A15,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C15" si="10">LEFT(A15,2)&amp;"级进阶护甲的材料"</f>
         <v>60级进阶护甲的材料</v>
       </c>
       <c r="D15" t="s">
@@ -1121,26 +1152,25 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
-        <v>24000</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>116002</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7001</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ref="C16" si="12">LEFT(A16,2)&amp;"级进阶武器的材料"</f>
+        <f t="shared" ref="C16" si="11">LEFT(A16,2)&amp;"级进阶武器的材料"</f>
         <v>70级进阶武器的材料</v>
       </c>
       <c r="D16" t="s">
@@ -1156,26 +1186,25 @@
         <v>22</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>1000</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+        <v>117001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7002</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ref="C17" si="13">LEFT(A17,2)&amp;"级进阶护甲的材料"</f>
+        <f t="shared" ref="C17" si="12">LEFT(A17,2)&amp;"级进阶护甲的材料"</f>
         <v>70级进阶护甲的材料</v>
       </c>
       <c r="D17" t="s">
@@ -1191,16 +1220,84 @@
         <v>23</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
-        <v>35000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
-      </c>
-    </row>
+        <v>117002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>8001</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" ref="C18" si="13">LEFT(A18,2)&amp;"级进阶武器的材料"</f>
+        <v>80级进阶武器的材料</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>999</v>
+      </c>
+      <c r="G18" s="2">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="2">
+        <v>117001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>8002</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f t="shared" ref="C19" si="14">LEFT(A19,2)&amp;"级进阶护甲的材料"</f>
+        <v>80级进阶护甲的材料</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="2">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>999</v>
+      </c>
+      <c r="G19" s="2">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="2">
+        <v>117002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1209,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C35"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1222,7 +1319,7 @@
     <col min="9" max="9" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -1247,8 +1344,11 @@
       <c r="I1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1276,8 +1376,11 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1303,8 +1406,11 @@
         <v>100</v>
       </c>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -1335,7 +1441,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1366,7 +1472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <f t="shared" ref="A6:A17" si="1">A4+1000</f>
         <v>2001</v>
@@ -1398,7 +1504,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7">
         <f t="shared" si="1"/>
         <v>2002</v>
@@ -1430,7 +1536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8">
         <f t="shared" si="1"/>
         <v>3001</v>
@@ -1462,7 +1568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9">
         <f t="shared" si="1"/>
         <v>3002</v>
@@ -1494,7 +1600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10">
         <f t="shared" si="1"/>
         <v>4001</v>
@@ -1526,7 +1632,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11">
         <f t="shared" si="1"/>
         <v>4002</v>
@@ -1558,7 +1664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12">
         <f t="shared" si="1"/>
         <v>5001</v>
@@ -1590,7 +1696,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13">
         <f t="shared" si="1"/>
         <v>5002</v>
@@ -1622,7 +1728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14">
         <f t="shared" si="1"/>
         <v>6001</v>
@@ -1654,7 +1760,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15">
         <f t="shared" si="1"/>
         <v>6002</v>
@@ -1686,7 +1792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16">
         <f t="shared" si="1"/>
         <v>7001</v>
